--- a/CoreFramework/testsuitefiles/StockSuite.xlsx
+++ b/CoreFramework/testsuitefiles/StockSuite.xlsx
@@ -138,7 +138,7 @@
     <t>Tata Steel</t>
   </si>
   <si>
-    <t>Mozilla</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="2" sqref="B7 B11 B15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CoreFramework/testsuitefiles/StockSuite.xlsx
+++ b/CoreFramework/testsuitefiles/StockSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -563,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -571,7 +574,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -579,7 +582,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/CoreFramework/testsuitefiles/StockSuite.xlsx
+++ b/CoreFramework/testsuitefiles/StockSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
